--- a/Lab1/Lab1.3/Lab1_3_Requirements_Stakeholder_Traceability_Matrix.xlsx
+++ b/Lab1/Lab1.3/Lab1_3_Requirements_Stakeholder_Traceability_Matrix.xlsx
@@ -76,7 +76,7 @@
     <t>I, PD, F, P</t>
   </si>
   <si>
-    <t>Import</t>
+    <t>Manage configuration</t>
   </si>
   <si>
     <t>PD, F</t>
